--- a/posts/primary/primary.xlsx
+++ b/posts/primary/primary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-factsheets/posts/primary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/primary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC2A4C91-2713-4879-B1A1-D2AB090369C4}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BAE4D7-0280-4657-B706-5E2F060D02F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,90 +30,24 @@
     <t>CITATION METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtitle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related Publication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
     <t>Dutch; English</t>
   </si>
   <si>
-    <t xml:space="preserve">Contributor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depositor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deposit Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Collection </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software </t>
-  </si>
-  <si>
     <t>PRIMARY</t>
   </si>
   <si>
     <t>PRIMARY: DATA</t>
   </si>
   <si>
-    <t>Alternative URL</t>
-  </si>
-  <si>
     <t>PRe-Intervention Monitoring of Affect and Relationships in Youth</t>
   </si>
   <si>
     <t>[https://www.ggzcentraal.nl/over-ons/hype/primary/](https://www.ggzcentraal.nl/over-ons/hype/primary/)</t>
   </si>
   <si>
-    <t>Christel Hessels (GGZ Centraal) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Odilia Laucelle (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Marcel van Aken (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Anouk Aleva (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Tessa van den Berg (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
     <t>Isa Swinkels (Utrecht University) - [ORCID]()</t>
   </si>
   <si>
-    <t>[Christel Hessels](email) (GGZ Centraal)</t>
-  </si>
-  <si>
     <t>Social Sciences; Medicine, Health and Life Sciences</t>
   </si>
   <si>
@@ -136,95 +70,161 @@
   </si>
   <si>
     <t>randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Data is not publicly available due to privacy considerations. For further information and data access, please contact the researchers</t>
+  </si>
+  <si>
+    <t>GGZ Centraal</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>_Hosting Institution_ : GGZ Centraal&lt;br&gt;&lt;/br&gt;_Project Member_: Utrecht University</t>
+  </si>
+  <si>
+    <t>Neha Moopen</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>ZonMw</t>
+  </si>
+  <si>
+    <t>questionnaires</t>
+  </si>
+  <si>
+    <t>Roqua</t>
+  </si>
+  <si>
+    <t>SOCIAL SCIENCES &amp; HUMANITIES METADATA</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>S-GZZ patients between 12-25 years of age, who self-harmed over the past year.</t>
+  </si>
+  <si>
+    <t>time series</t>
+  </si>
+  <si>
+    <t>5x a day, for 28 days (intervention group)</t>
+  </si>
+  <si>
+    <t>pre- and post-test online questionnaires; smartphone-based questionnaires</t>
+  </si>
+  <si>
+    <t>structured</t>
+  </si>
+  <si>
+    <t>An overview of questionnaires in available in the study protocol paper.</t>
+  </si>
+  <si>
+    <t>**Title**</t>
+  </si>
+  <si>
+    <t>**Subtitle**</t>
+  </si>
+  <si>
+    <t>**Alternative URL**</t>
+  </si>
+  <si>
+    <t>**Author**</t>
+  </si>
+  <si>
+    <t>**Point of Contact**</t>
+  </si>
+  <si>
+    <t>**Description**</t>
+  </si>
+  <si>
+    <t>**Subject**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword** </t>
+  </si>
+  <si>
+    <t>**Related Publication**</t>
+  </si>
+  <si>
+    <t>**Notes**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Language** </t>
+  </si>
+  <si>
+    <t>**Production Location**</t>
+  </si>
+  <si>
+    <t>**Contributor**</t>
+  </si>
+  <si>
+    <t>**Producer**</t>
+  </si>
+  <si>
+    <t>**Funding Information**</t>
+  </si>
+  <si>
+    <t>**Depositor**</t>
+  </si>
+  <si>
+    <t>**Deposit Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Software**</t>
+  </si>
+  <si>
+    <t>_Start Date_: 2021-10-01 ; _End Date_: 2025-10-01</t>
+  </si>
+  <si>
+    <t>**Unit of Analysis**</t>
+  </si>
+  <si>
+    <t>**Universe**</t>
+  </si>
+  <si>
+    <t>**Time Method**</t>
+  </si>
+  <si>
+    <t>**Frequency**</t>
+  </si>
+  <si>
+    <t>**Collection Mode**</t>
+  </si>
+  <si>
+    <t>**Type of Research Instrument**</t>
   </si>
   <si>
     <t>Aleva, A., van den Berg, T., Laceulle, O.M. et al. A smartphone-based intervention for young
 people who self-harm (‘PRIMARY’): study protocol for a multicenter randomized controlled trial.
-BMC Psychiatry 23, 840 (2023). doi: https://doi.org/10.1186/s12888-023-05301-x</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Data is not publicly available due to privacy considerations. For further information and data access, please contact the researchers</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Production Location</t>
-  </si>
-  <si>
-    <t>GGZ Centraal</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>_Hosting Institution_ : GGZ Centraal&lt;br&gt;&lt;/br&gt;_Project Member_: Utrecht University</t>
-  </si>
-  <si>
-    <t>Neha Moopen</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>Funding Information</t>
-  </si>
-  <si>
-    <t>ZonMw</t>
-  </si>
-  <si>
-    <t>Start Date: 2021-10-01 ; End Date: 2025-10-01</t>
-  </si>
-  <si>
-    <t>questionnaires</t>
-  </si>
-  <si>
-    <t>Roqua</t>
-  </si>
-  <si>
-    <t>SOCIAL SCIENCES &amp; HUMANITIES METADATA</t>
-  </si>
-  <si>
-    <t>Unit of Analysis</t>
-  </si>
-  <si>
-    <t>Universe</t>
-  </si>
-  <si>
-    <t>Time Method</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Collection Mode</t>
-  </si>
-  <si>
-    <t>Type of Research Instrument</t>
-  </si>
-  <si>
-    <t>individuals</t>
-  </si>
-  <si>
-    <t>S-GZZ patients between 12-25 years of age, who self-harmed over the past year.</t>
-  </si>
-  <si>
-    <t>time series</t>
-  </si>
-  <si>
-    <t>5x a day, for 28 days (intervention group)</t>
-  </si>
-  <si>
-    <t>pre- and post-test online questionnaires; smartphone-based questionnaires</t>
-  </si>
-  <si>
-    <t>structured</t>
-  </si>
-  <si>
-    <t>An overview of questionnaires in available in the study protocol paper.</t>
+BMC Psychiatry 23, 840 (2023). doi: &lt;https://doi.org/10.1186/s12888-023-05301-x&gt;</t>
+  </si>
+  <si>
+    <t>Christel Hessels (GGZ Centraal) - [ORCID](https://orcid.org/0000-0002-1937-1085)</t>
+  </si>
+  <si>
+    <t>Odilia Laceulle (Utrecht University) - [ORCID](https://orcid.org/0000-0002-4305-512X)</t>
+  </si>
+  <si>
+    <t>Marcel van Aken (Utrecht University) - [ORCID](https://orcid.org/0000-0003-3656-4003)</t>
+  </si>
+  <si>
+    <t>Anouk Aleva (Utrecht University) - [ORCID](https://orcid.org/0000-0002-7451-2805)</t>
+  </si>
+  <si>
+    <t>Tessa van den Berg (Utrecht University) - [ORCID](https://orcid.org/0000-0001-5879-9159)</t>
+  </si>
+  <si>
+    <t>[Christel Hessels](c.hessels@ggzcentraal.nl) (GGZ Centraal)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -289,12 +289,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,6 +316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -602,227 +611,227 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
+      <c r="A6" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
+      <c r="A15" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
+      <c r="A23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>41</v>
+      <c r="A25" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
+      <c r="A26" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2"/>
     </row>
@@ -831,7 +840,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +848,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +856,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,15 +864,15 @@
         <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>63</v>
+      <c r="B38" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,15 +880,15 @@
         <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">

--- a/posts/primary/primary.xlsx
+++ b/posts/primary/primary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/primary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BAE4D7-0280-4657-B706-5E2F060D02F0}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CFCB7C-1A43-4835-829D-BDC036B0D122}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -204,11 +204,6 @@
     <t>**Type of Research Instrument**</t>
   </si>
   <si>
-    <t>Aleva, A., van den Berg, T., Laceulle, O.M. et al. A smartphone-based intervention for young
-people who self-harm (‘PRIMARY’): study protocol for a multicenter randomized controlled trial.
-BMC Psychiatry 23, 840 (2023). doi: &lt;https://doi.org/10.1186/s12888-023-05301-x&gt;</t>
-  </si>
-  <si>
     <t>Christel Hessels (GGZ Centraal) - [ORCID](https://orcid.org/0000-0002-1937-1085)</t>
   </si>
   <si>
@@ -225,6 +220,9 @@
   </si>
   <si>
     <t>[Christel Hessels](c.hessels@ggzcentraal.nl) (GGZ Centraal)</t>
+  </si>
+  <si>
+    <t>Aleva, A., van den Berg, T., Laceulle, O.M. et al. A smartphone-based intervention for young people who self-harm (‘PRIMARY’): study protocol for a multicenter randomized controlled trial. BMC Psychiatry 23, 840 (2023). doi: &lt;https://doi.org/10.1186/s12888-023-05301-x&gt;</t>
   </si>
 </sst>
 </file>
@@ -316,10 +314,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,29 +581,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -617,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -625,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -633,53 +627,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -687,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -695,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
@@ -703,45 +697,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -749,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
@@ -757,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -765,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -773,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -781,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
@@ -789,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -797,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -805,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -813,7 +807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -821,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -829,13 +823,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -843,7 +837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>54</v>
       </c>
@@ -851,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
@@ -859,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -867,7 +861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -875,7 +869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
@@ -883,7 +877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -891,20 +885,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
   </sheetData>
